--- a/forms/contact/community_unit-create.xlsx
+++ b/forms/contact/community_unit-create.xlsx
@@ -907,6 +907,27 @@
     <t xml:space="preserve">Superviseur ASC</t>
   </si>
   <si>
+    <t xml:space="preserve">manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Facility Manager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्वास्थ्य केंद्र के मैनजर</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manajer Fasilitas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meneja wa Kituo cha afya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्वास्थ्य सस्था प्रमुख</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Staff médical</t>
+  </si>
+  <si>
     <t xml:space="preserve">nurse</t>
   </si>
   <si>
@@ -923,27 +944,6 @@
   </si>
   <si>
     <t xml:space="preserve">Infirmier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Facility Manager</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य केंद्र के मैनजर</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manajer Fasilitas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meneja wa Kituo cha afya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">स्वास्थ्य सस्था प्रमुख</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Staff médical</t>
   </si>
   <si>
     <t xml:space="preserve">patient</t>
@@ -1541,10 +1541,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="1" sqref="13:13 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.71"/>
@@ -5743,8 +5743,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="75" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="75" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5757,13 +5757,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="13:13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29"/>
@@ -6085,11 +6085,11 @@
         <v>297</v>
       </c>
       <c r="G12" s="29" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H12" s="30"/>
       <c r="I12" s="18" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6097,22 +6097,22 @@
         <v>278</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E13" s="32" t="s">
+        <v>303</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="29" t="s">
         <v>302</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" s="29" t="s">
-        <v>304</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="18" t="s">
@@ -6416,10 +6416,11 @@
         <v>100</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="75" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="75" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6435,10 +6436,10 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="13:13 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
@@ -6478,7 +6479,7 @@
       </c>
       <c r="C2" s="37" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2023-07-10  13-29</v>
+        <v>2023-07-13  21-01</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>372</v>
@@ -7487,8 +7488,8 @@
     <row r="1000" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="75" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="75" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
